--- a/doc/記錄.xlsx
+++ b/doc/記錄.xlsx
@@ -3,24 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6335D698-423B-4FFD-9EFF-5121BE13C01A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583078DD-C978-4811-A02A-0B7A26305CDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="尺規計算1" sheetId="2" r:id="rId2"/>
+    <sheet name="尺規計算2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$K$19</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="72">
   <si>
     <t>序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,11 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今天剛好窗口有來說款項已經通過會計的挑戰，順便給她看一下進度。
-覺得顏色太暗，跟別的物件不太搭，我們可以一起討論怎麼調整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水位上升高度要開始依據題目進行調整，待尺規圖調整完後再作業</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,6 +351,82 @@
   </si>
   <si>
     <t>姿潔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">木塊 -&gt; 2 + 1.25 = 3.25  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">磚塊 -&gt; 2 + 1.25 = 3.25  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鐵塊 -&gt; 2 + 1.25 = 3.25  </t>
+  </si>
+  <si>
+    <t>塑膠塊 -&gt; 2 + 1 = 3</t>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.25cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在1cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位：PX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>題目內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月4日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幫忙試著調整刻度大一點的尺規</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月3日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覺得顏色太暗，跟別的物件不太搭，我們可以一起討論怎麼調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有手把有毛邊，再麻煩修正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,16 +543,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,6 +561,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>601404</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD6F933-BFC8-4AE1-960D-8949E52B8141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="2095500"/>
+          <a:ext cx="9526329" cy="3277057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K26"/>
+  <dimension ref="B2:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -834,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -868,28 +990,28 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
@@ -898,28 +1020,28 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
@@ -928,28 +1050,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -958,28 +1080,28 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
@@ -988,28 +1110,28 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
@@ -1018,28 +1140,28 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -1048,28 +1170,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -1078,28 +1200,28 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
@@ -1108,28 +1230,28 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -1138,28 +1260,28 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1168,28 +1290,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1198,28 +1320,28 @@
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -1228,28 +1350,28 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
@@ -1258,28 +1380,28 @@
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
@@ -1288,28 +1410,28 @@
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
@@ -1318,28 +1440,28 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
@@ -1348,28 +1470,28 @@
       <c r="C19" s="3">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -1378,54 +1500,58 @@
       <c r="C20" s="3">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
+      <c r="I20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="2:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>19</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
+      <c r="I21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
@@ -1434,26 +1560,28 @@
       <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
+      <c r="I22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
@@ -1462,26 +1590,28 @@
       <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="I23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -1490,26 +1620,28 @@
       <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="G24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="7" t="s">
+      <c r="I24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="4"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
@@ -1518,26 +1650,28 @@
       <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="G25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="7" t="s">
+      <c r="I25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
@@ -1546,26 +1680,86 @@
       <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="G26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:K19" xr:uid="{4BF67343-61B6-4874-AA26-81AFD635EF1E}"/>
@@ -1577,26 +1771,243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>230</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <f>230/2</f>
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <f>D5/2</f>
+        <v>57.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>5.75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <f>D6*2</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <f>D6*3.25</f>
+        <v>186.875</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <f>D6*3</f>
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>230</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <f>230/2</f>
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <f>D5/2</f>
+        <v>57.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>5.75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <f>D6*2</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <f>D6*3.25</f>
+        <v>186.875</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <f>D6*3</f>
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/記錄.xlsx
+++ b/doc/記錄.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583078DD-C978-4811-A02A-0B7A26305CDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$K$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="84">
   <si>
     <t>序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,11 +428,59 @@
     <t>有手把有毛邊，再麻煩修正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>木塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望在多像一點木頭紋路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑膠塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳白色一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵塊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更有金屬光澤感，拉對比色，讓白色的部分光澤亮眼一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水缸水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考尺規的顏色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幫忙做3張尺規有水的貼圖，放大置換用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月7日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月8日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANDY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,6 +591,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,23 +741,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -740,23 +776,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -932,11 +951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1755,14 +1774,166 @@
       <c r="H28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="J28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K28" s="3"/>
     </row>
+    <row r="29" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:K19" xr:uid="{4BF67343-61B6-4874-AA26-81AFD635EF1E}"/>
+  <autoFilter ref="B2:K19"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1770,7 +1941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1893,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
